--- a/exampleInput/TeacherCourseMapping.xlsx
+++ b/exampleInput/TeacherCourseMapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ez/PycharmProjects/EduCourse/.venv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ez/Documents/Course-Sorting-Algorithm/exampleInput/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B362F61D-9AAC-0A4A-AC96-3F54FC1167C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8C2C6B-A3B4-4240-A5E5-5DD9396A4BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13940" yWindow="-20360" windowWidth="28860" windowHeight="20360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Result 1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="112">
   <si>
     <t>Last Name</t>
   </si>
@@ -345,6 +345,18 @@
   </si>
   <si>
     <t>ENGLISH 9, ENGLISH 8, ENGLISH 10, FOCUSED LITERARY STUDIES 11</t>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>Kwong</t>
+  </si>
+  <si>
+    <t>FOCUSED LITERARY STUDIES 11</t>
+  </si>
+  <si>
+    <t>Room Capcity</t>
   </si>
 </sst>
 </file>
@@ -1205,22 +1217,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="160.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="166" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1236,8 +1250,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1247,8 +1267,14 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1258,8 +1284,14 @@
       <c r="C3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1269,8 +1301,14 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1280,8 +1318,14 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1291,8 +1335,14 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1302,8 +1352,14 @@
       <c r="C7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1313,8 +1369,14 @@
       <c r="C8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1386,14 @@
       <c r="C9" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1338,8 +1406,14 @@
       <c r="E10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1352,8 +1426,14 @@
       <c r="E11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1366,8 +1446,14 @@
       <c r="E12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1377,8 +1463,14 @@
       <c r="C13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1388,8 +1480,14 @@
       <c r="C14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1399,8 +1497,14 @@
       <c r="C15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -1410,8 +1514,14 @@
       <c r="C16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1421,8 +1531,14 @@
       <c r="C17" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -1432,8 +1548,14 @@
       <c r="C18" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -1446,8 +1568,14 @@
       <c r="E19" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -1457,8 +1585,14 @@
       <c r="C20" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="G20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -1471,8 +1605,14 @@
       <c r="D21" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>7</v>
+      </c>
+      <c r="G21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -1482,8 +1622,14 @@
       <c r="C22" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="G22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -1493,8 +1639,14 @@
       <c r="C23" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>7</v>
+      </c>
+      <c r="G23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -1504,8 +1656,14 @@
       <c r="C24" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>7</v>
+      </c>
+      <c r="G24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -1518,8 +1676,14 @@
       <c r="D25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>7</v>
+      </c>
+      <c r="G25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -1529,8 +1693,14 @@
       <c r="C26" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -1540,8 +1710,14 @@
       <c r="C27" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="G27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -1551,8 +1727,14 @@
       <c r="C28" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>7</v>
+      </c>
+      <c r="G28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -1565,8 +1747,14 @@
       <c r="D29" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>7</v>
+      </c>
+      <c r="G29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -1576,8 +1764,14 @@
       <c r="C30" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -1587,8 +1781,14 @@
       <c r="C31" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <v>7</v>
+      </c>
+      <c r="G31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -1598,8 +1798,14 @@
       <c r="C32" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -1609,8 +1815,14 @@
       <c r="C33" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>7</v>
+      </c>
+      <c r="G33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -1623,8 +1835,14 @@
       <c r="D34" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>7</v>
+      </c>
+      <c r="G34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>105</v>
       </c>
@@ -1633,6 +1851,29 @@
       </c>
       <c r="C35" t="s">
         <v>107</v>
+      </c>
+      <c r="F35">
+        <v>7</v>
+      </c>
+      <c r="G35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/exampleInput/TeacherCourseMapping.xlsx
+++ b/exampleInput/TeacherCourseMapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ez/Documents/Course-Sorting-Algorithm/exampleInput/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ez/Documents/course-sorting-educourse/Course-Sorting-Algorithm/exampleInput/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8C2C6B-A3B4-4240-A5E5-5DD9396A4BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BA4A94-6B9E-C844-B78D-B9BAAE6AB74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -212,9 +212,6 @@
     <t>Frances</t>
   </si>
   <si>
-    <t>DRAFTING 11, DRAFTING 12, ENGINEERING 11, ENGINEERING 12</t>
-  </si>
-  <si>
     <t>Reed</t>
   </si>
   <si>
@@ -357,6 +354,9 @@
   </si>
   <si>
     <t>Room Capcity</t>
+  </si>
+  <si>
+    <t>DRAFTING 8, DRAFTING 11, DRAFTING 12, ENGINEERING 11, ENGINEERING 12</t>
   </si>
 </sst>
 </file>
@@ -1219,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="143" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1251,10 +1251,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1282,7 +1282,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F3">
         <v>7</v>
@@ -1384,7 +1384,7 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9">
         <v>7</v>
@@ -1600,7 +1600,7 @@
         <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="D21" t="s">
         <v>30</v>
@@ -1614,13 +1614,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
         <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F22">
         <v>7</v>
@@ -1631,13 +1631,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>67</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
       </c>
       <c r="F23">
         <v>7</v>
@@ -1648,13 +1648,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
         <v>69</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>70</v>
-      </c>
-      <c r="C24" t="s">
-        <v>71</v>
       </c>
       <c r="F24">
         <v>7</v>
@@ -1665,13 +1665,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
         <v>72</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>73</v>
-      </c>
-      <c r="C25" t="s">
-        <v>74</v>
       </c>
       <c r="D25" t="s">
         <v>30</v>
@@ -1685,13 +1685,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
         <v>75</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>76</v>
-      </c>
-      <c r="C26" t="s">
-        <v>77</v>
       </c>
       <c r="F26">
         <v>7</v>
@@ -1702,13 +1702,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
         <v>78</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>79</v>
-      </c>
-      <c r="C27" t="s">
-        <v>80</v>
       </c>
       <c r="F27">
         <v>7</v>
@@ -1719,13 +1719,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
         <v>81</v>
       </c>
-      <c r="B28" t="s">
-        <v>82</v>
-      </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F28">
         <v>7</v>
@@ -1736,13 +1736,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
         <v>83</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>84</v>
-      </c>
-      <c r="C29" t="s">
-        <v>85</v>
       </c>
       <c r="D29" t="s">
         <v>30</v>
@@ -1756,13 +1756,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
         <v>86</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>87</v>
-      </c>
-      <c r="C30" t="s">
-        <v>88</v>
       </c>
       <c r="F30">
         <v>7</v>
@@ -1773,13 +1773,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s">
         <v>89</v>
       </c>
-      <c r="B31" t="s">
-        <v>90</v>
-      </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F31">
         <v>7</v>
@@ -1790,13 +1790,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" t="s">
         <v>91</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>92</v>
-      </c>
-      <c r="C32" t="s">
-        <v>93</v>
       </c>
       <c r="F32">
         <v>7</v>
@@ -1807,13 +1807,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" t="s">
         <v>94</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>95</v>
-      </c>
-      <c r="C33" t="s">
-        <v>96</v>
       </c>
       <c r="F33">
         <v>7</v>
@@ -1824,13 +1824,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" t="s">
         <v>97</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>98</v>
-      </c>
-      <c r="C34" t="s">
-        <v>99</v>
       </c>
       <c r="D34" t="s">
         <v>30</v>
@@ -1844,13 +1844,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" t="s">
         <v>105</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>106</v>
-      </c>
-      <c r="C35" t="s">
-        <v>107</v>
       </c>
       <c r="F35">
         <v>7</v>
@@ -1861,13 +1861,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" t="s">
         <v>109</v>
-      </c>
-      <c r="C36" t="s">
-        <v>110</v>
       </c>
       <c r="F36">
         <v>5</v>
@@ -1891,7 +1891,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
